--- a/data/cms_to_attributes.xlsx
+++ b/data/cms_to_attributes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\segal\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\FK_branch\ut_pr_01\src\ner_attributes\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F970DD-3930-4979-9AFF-9EE46BB8AED1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7C61A9-24AF-4E4B-AD16-A6F98F911F54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D9BF80F6-A39B-45AF-913B-96B3790821A5}"/>
   </bookViews>
@@ -33,15 +33,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
-    <t>memory technology</t>
-  </si>
-  <si>
-    <t>system memory</t>
-  </si>
-  <si>
-    <t>Sim Type</t>
-  </si>
-  <si>
     <t>video_resolution</t>
   </si>
   <si>
@@ -51,15 +42,6 @@
     <t>ram</t>
   </si>
   <si>
-    <t>ram type</t>
-  </si>
-  <si>
-    <t>dedicated graphic memory capacity</t>
-  </si>
-  <si>
-    <t>graphic memory</t>
-  </si>
-  <si>
     <t>RAM</t>
   </si>
   <si>
@@ -72,12 +54,6 @@
     <t>digital_zoom</t>
   </si>
   <si>
-    <t>graphics memory</t>
-  </si>
-  <si>
-    <t>operating system</t>
-  </si>
-  <si>
     <t>OS</t>
   </si>
   <si>
@@ -90,9 +66,6 @@
     <t>optical_zoom</t>
   </si>
   <si>
-    <t>processor brand</t>
-  </si>
-  <si>
     <t>Connectivity</t>
   </si>
   <si>
@@ -108,15 +81,6 @@
     <t>sensor_type</t>
   </si>
   <si>
-    <t>processor name</t>
-  </si>
-  <si>
-    <t>processor type</t>
-  </si>
-  <si>
-    <t>processor model</t>
-  </si>
-  <si>
     <t>tablet</t>
   </si>
   <si>
@@ -135,9 +99,6 @@
     <t>dslr_camera</t>
   </si>
   <si>
-    <t>camcorder</t>
-  </si>
-  <si>
     <t>cpu</t>
   </si>
   <si>
@@ -147,10 +108,49 @@
     <t>computer</t>
   </si>
   <si>
-    <t>all in one</t>
-  </si>
-  <si>
     <t>system_memory_type</t>
+  </si>
+  <si>
+    <t>allinone_desktop</t>
+  </si>
+  <si>
+    <t>camcoder</t>
+  </si>
+  <si>
+    <t>processor_model</t>
+  </si>
+  <si>
+    <t>processor_name</t>
+  </si>
+  <si>
+    <t>processor_type</t>
+  </si>
+  <si>
+    <t>processor_brand</t>
+  </si>
+  <si>
+    <t>operating_system</t>
+  </si>
+  <si>
+    <t>graphics_memory</t>
+  </si>
+  <si>
+    <t>graphic_memory</t>
+  </si>
+  <si>
+    <t>dedicated_graphic_memory_capacity</t>
+  </si>
+  <si>
+    <t>ram_type</t>
+  </si>
+  <si>
+    <t>Sim_Type</t>
+  </si>
+  <si>
+    <t>system_memory</t>
+  </si>
+  <si>
+    <t>memory_technology</t>
   </si>
 </sst>
 </file>
@@ -631,7 +631,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -642,179 +642,179 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="12" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
